--- a/SCALING/Scaling.xlsx
+++ b/SCALING/Scaling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabdup01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabdup01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F21BEEE-284C-42A1-A510-F779D434AE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D950FB-B4D2-4DD3-804F-9DAFC4EA517B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1095" windowWidth="19095" windowHeight="18840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamico" sheetId="1" r:id="rId1"/>
@@ -29,22 +29,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Elapsed Time (s)</t>
   </si>
+  <si>
+    <t>Noeud</t>
+  </si>
+  <si>
+    <t>Processus MPI</t>
+  </si>
+  <si>
+    <t>arm 19.3.0</t>
+  </si>
+  <si>
+    <t>arm 20.0.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,12 +376,12 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>32</v>
       </c>
@@ -389,7 +410,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -431,12 +452,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -453,7 +474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +505,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -492,23 +513,115 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62E626C-C13B-4D4A-B33A-2E70FC6DDA92}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1">
+        <v>256</v>
+      </c>
+      <c r="E2" s="1">
+        <v>512</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>642</v>
+      </c>
+      <c r="C3" s="1">
+        <v>325</v>
+      </c>
+      <c r="D3" s="1">
+        <v>168</v>
+      </c>
+      <c r="E3" s="1">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>730</v>
+      </c>
+      <c r="C4" s="1">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>207</v>
+      </c>
+      <c r="E4" s="1">
+        <v>103</v>
+      </c>
+      <c r="F4" s="1">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D3099D-D350-44B2-B73B-5A7CC23507EB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D3099D-D350-44B2-B73B-5A7CC23507EB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
